--- a/Tests Data/Uni-Solar ES-62T/Single-diode model/STC/Single-diode emulator - Uni‑Solar ES‑62T (STC).xlsx
+++ b/Tests Data/Uni-Solar ES-62T/Single-diode model/STC/Single-diode emulator - Uni‑Solar ES‑62T (STC).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel\Desktop\Stage\Émulateur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Stage\Emulator\Tests Data\Uni-Solar ES-62T\Single-diode model\STC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB688AFD-7944-450F-A584-5E12AC9D748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59208D84-6877-4C9C-B975-65C3F6F3CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7785" xr2:uid="{217CCB4B-160F-4504-987F-9C10DFEEC66E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent6" xfId="1" builtinId="49"/>
+    <cellStyle name="Ênfase6" xfId="1" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -473,10 +473,10 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -524,502 +524,502 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>1.1299999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C8" si="0">A2*B2</f>
-        <v>56.499999999999993</v>
+        <f t="shared" ref="C2:C9" si="0">A2*B2</f>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>11.48</v>
+        <v>8.81</v>
       </c>
       <c r="E2">
-        <v>4.2699999999999996</v>
+        <v>4.53</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F8" si="1">D2*E2</f>
-        <v>49.019599999999997</v>
+        <f t="shared" ref="F2:F9" si="1">D2*E2</f>
+        <v>39.909300000000002</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G9" si="2">D2/E2</f>
-        <v>2.6885245901639347</v>
+        <f t="shared" ref="G2:G10" si="2">D2/E2</f>
+        <v>1.944812362030905</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>22.92971</v>
       </c>
       <c r="I2">
-        <v>8.93</v>
+        <v>12.203246</v>
       </c>
       <c r="J2">
-        <v>11.9</v>
+        <v>9.0639149999999997</v>
       </c>
       <c r="K2">
-        <v>4.62</v>
+        <v>4.8238370000000002</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="3">J2/K2</f>
-        <v>2.5757575757575757</v>
+        <f t="shared" ref="L2" si="3">J2/K2</f>
+        <v>1.8789845096341355</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M8" si="4">(ABS(L2-G2)/G2)*100</f>
-        <v>4.1943828529194525</v>
+        <f t="shared" ref="M2" si="4">(ABS(L2-G2)/G2)*100</f>
+        <v>3.3847919563832658</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N8" si="5">(F2/C2)*100</f>
-        <v>86.760353982300884</v>
+        <f t="shared" ref="N2" si="5">(F2/C2)*100</f>
+        <v>83.144374999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3">
-        <v>1.1599999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="C3">
         <f t="shared" si="0"/>
-        <v>57.999999999999993</v>
+        <v>54.6</v>
       </c>
       <c r="D3">
-        <v>12.02</v>
+        <v>10.27</v>
       </c>
       <c r="E3">
-        <v>4.3</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F3">
         <f t="shared" si="1"/>
-        <v>51.685999999999993</v>
+        <v>46.009599999999999</v>
       </c>
       <c r="G3">
         <f t="shared" si="2"/>
-        <v>2.7953488372093025</v>
+        <v>2.292410714285714</v>
       </c>
       <c r="H3">
-        <v>23.15</v>
+        <v>23.088787</v>
       </c>
       <c r="I3">
-        <v>8.5299999999999994</v>
+        <v>10.189253000000001</v>
       </c>
       <c r="J3">
-        <v>12.39</v>
+        <v>10.677806</v>
       </c>
       <c r="K3">
-        <v>4.5599999999999996</v>
+        <v>4.7121950000000004</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
-        <v>2.7171052631578951</v>
+        <f t="shared" ref="L3:L9" si="6">J3/K3</f>
+        <v>2.265994085558853</v>
       </c>
       <c r="M3">
-        <f t="shared" si="4"/>
-        <v>2.7990629652333747</v>
+        <f t="shared" ref="M3:M9" si="7">(ABS(L3-G3)/G3)*100</f>
+        <v>1.1523514770821555</v>
       </c>
       <c r="N3">
-        <f t="shared" si="5"/>
-        <v>89.113793103448273</v>
+        <f t="shared" ref="N3:N9" si="8">(F3/C3)*100</f>
+        <v>84.266666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>1.24</v>
+        <v>0.99</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>59.4</v>
       </c>
       <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.2300000000000004</v>
+        <v>11.78</v>
+      </c>
+      <c r="E4">
+        <v>4.38</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>54.990000000000009</v>
+        <v>51.596399999999996</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>3.0732860520094558</v>
+        <v>2.689497716894977</v>
       </c>
       <c r="H4">
-        <v>23.15</v>
+        <v>22.956436</v>
       </c>
       <c r="I4">
-        <v>7.68</v>
+        <v>8.6745699999999992</v>
       </c>
       <c r="J4">
-        <v>13.38</v>
+        <v>12.169373999999999</v>
       </c>
       <c r="K4">
-        <v>4.4400000000000004</v>
+        <v>4.5984530000000001</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
-        <v>3.0135135135135136</v>
+        <f t="shared" si="6"/>
+        <v>2.6464060848289628</v>
       </c>
       <c r="M4">
-        <f t="shared" si="4"/>
-        <v>1.9449064449064277</v>
+        <f t="shared" si="7"/>
+        <v>1.6022185776667415</v>
       </c>
       <c r="N4">
-        <f t="shared" si="5"/>
-        <v>88.693548387096783</v>
+        <f t="shared" si="8"/>
+        <v>86.86262626262625</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>1.25</v>
+        <v>1.03</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>61.800000000000004</v>
       </c>
       <c r="D5">
-        <v>14.1</v>
-      </c>
-      <c r="E5">
-        <v>3.95</v>
+        <v>13.17</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.08</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>55.695</v>
+        <v>53.733600000000003</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>3.5696202531645569</v>
+        <v>3.2279411764705883</v>
       </c>
       <c r="H5">
-        <v>23.01</v>
+        <v>23.073864</v>
       </c>
       <c r="I5">
-        <v>6.7</v>
+        <v>7.5210920000000003</v>
       </c>
       <c r="J5">
-        <v>14.47</v>
+        <v>13.542477999999999</v>
       </c>
       <c r="K5">
-        <v>4.21</v>
+        <v>4.4142679999999999</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
-        <v>3.4370546318289787</v>
+        <f t="shared" si="6"/>
+        <v>3.0678875863450066</v>
       </c>
       <c r="M5">
-        <f t="shared" si="4"/>
-        <v>3.7137177608193879</v>
+        <f t="shared" si="7"/>
+        <v>4.9583800130020759</v>
       </c>
       <c r="N5">
-        <f t="shared" si="5"/>
-        <v>89.112000000000009</v>
+        <f t="shared" si="8"/>
+        <v>86.947572815533974</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63.6</v>
       </c>
       <c r="D6">
-        <v>14.67</v>
+        <v>14.85</v>
       </c>
       <c r="E6">
-        <v>3.88</v>
+        <v>3.74</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>56.919599999999996</v>
+        <v>55.539000000000001</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>3.7809278350515463</v>
+        <v>3.9705882352941173</v>
       </c>
       <c r="H6">
-        <v>23.02</v>
+        <v>22.967013999999999</v>
       </c>
       <c r="I6">
-        <v>6.25</v>
+        <v>6.0909069999999996</v>
       </c>
       <c r="J6">
-        <v>15.04</v>
+        <v>15.171309000000001</v>
       </c>
       <c r="K6">
-        <v>4.08</v>
+        <v>4.0234670000000001</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
-        <v>3.6862745098039214</v>
+        <f t="shared" si="6"/>
+        <v>3.7707054637207165</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
-        <v>2.5034417311573605</v>
+        <f t="shared" si="7"/>
+        <v>5.0340846174041696</v>
       </c>
       <c r="N6">
-        <f t="shared" si="5"/>
-        <v>88.936874999999986</v>
+        <f t="shared" si="8"/>
+        <v>87.325471698113205</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>1.1599999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>57.999999999999993</v>
+        <v>60.6</v>
       </c>
       <c r="D7">
-        <v>16.27</v>
+        <v>15.67</v>
       </c>
       <c r="E7">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>52.226700000000001</v>
+        <v>53.748100000000001</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>5.0685358255451716</v>
+        <v>4.5685131195335273</v>
       </c>
       <c r="H7">
-        <v>23.04</v>
+        <v>22.983367999999999</v>
       </c>
       <c r="I7">
-        <v>4.6900000000000004</v>
+        <v>5.2286669999999997</v>
       </c>
       <c r="J7">
-        <v>16.600000000000001</v>
+        <v>16.019594000000001</v>
       </c>
       <c r="K7">
-        <v>3.38</v>
+        <v>3.6444239999999999</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
-        <v>4.9112426035502965</v>
+        <f t="shared" si="6"/>
+        <v>4.3956449633741856</v>
       </c>
       <c r="M7">
-        <f t="shared" si="4"/>
-        <v>3.1033266294010384</v>
+        <f t="shared" si="7"/>
+        <v>3.783904120143855</v>
       </c>
       <c r="N7">
-        <f t="shared" si="5"/>
-        <v>90.046034482758628</v>
+        <f t="shared" si="8"/>
+        <v>88.69323432343235</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>56.4</v>
       </c>
       <c r="D8">
-        <v>17.82</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E8">
-        <v>2.46</v>
+        <v>3.01</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>43.837200000000003</v>
+        <v>49.966000000000001</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>7.2439024390243905</v>
+        <v>5.5149501661129579</v>
       </c>
       <c r="H8">
-        <v>23.06</v>
+        <v>22.987224999999999</v>
       </c>
       <c r="I8">
-        <v>3.42</v>
+        <v>4.4180770000000003</v>
       </c>
       <c r="J8">
-        <v>18.09</v>
+        <v>16.904530999999999</v>
       </c>
       <c r="K8">
-        <v>2.68</v>
+        <v>3.2490009999999998</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
-        <v>6.7499999999999991</v>
+        <f t="shared" si="6"/>
+        <v>5.202993473994006</v>
       </c>
       <c r="M8">
-        <f t="shared" si="4"/>
-        <v>6.8181818181818326</v>
+        <f t="shared" si="7"/>
+        <v>5.6565641161327997</v>
       </c>
       <c r="N8">
-        <f t="shared" si="5"/>
-        <v>89.463673469387757</v>
+        <f t="shared" si="8"/>
+        <v>88.592198581560282</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:C12" si="6">A9*B9</f>
-        <v>40.5</v>
+        <f t="shared" si="0"/>
+        <v>51.6</v>
       </c>
       <c r="D9">
-        <v>18.64</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="E9">
-        <v>1.93</v>
+        <v>2.61</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9:F12" si="7">D9*E9</f>
-        <v>35.975200000000001</v>
+        <f t="shared" si="1"/>
+        <v>46.066499999999991</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>9.6580310880829021</v>
+        <v>6.7624521072796933</v>
       </c>
       <c r="H9">
-        <v>23.07</v>
+        <v>22.989025000000002</v>
       </c>
       <c r="I9">
-        <v>2.56</v>
+        <v>3.577474</v>
       </c>
       <c r="J9">
-        <v>18.88</v>
+        <v>17.930962000000001</v>
       </c>
       <c r="K9">
-        <v>2.09</v>
+        <v>2.7903549999999999</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9:L12" si="8">J9/K9</f>
-        <v>9.0334928229665081</v>
+        <f t="shared" si="6"/>
+        <v>6.4260504487780237</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M12" si="9">(ABS(L9-G9)/G9)*100</f>
-        <v>6.4665174446064402</v>
+        <f t="shared" si="7"/>
+        <v>4.9745514373334707</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N12" si="10">(F9/C9)*100</f>
-        <v>88.827654320987662</v>
+        <f t="shared" si="8"/>
+        <v>89.276162790697654</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B10">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="C10">
-        <f t="shared" si="6"/>
-        <v>22.5</v>
+        <f t="shared" ref="C10:C11" si="9">A10*B10</f>
+        <v>39.6</v>
       </c>
       <c r="D10">
-        <v>19.739999999999998</v>
+        <v>18.68</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>1.85</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
-        <v>18.950399999999998</v>
+        <f t="shared" ref="F10:F11" si="10">D10*E10</f>
+        <v>34.558</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10:G12" si="11">D10/E10</f>
-        <v>20.5625</v>
+        <f t="shared" si="2"/>
+        <v>10.097297297297297</v>
       </c>
       <c r="H10">
-        <v>23.08</v>
+        <v>22.998974</v>
       </c>
       <c r="I10">
-        <v>1.34</v>
+        <v>2.5474480000000002</v>
       </c>
       <c r="J10">
-        <v>19.93</v>
+        <v>18.904875000000001</v>
       </c>
       <c r="K10">
-        <v>1.1499999999999999</v>
+        <v>2.0939709999999998</v>
       </c>
       <c r="L10">
-        <f t="shared" si="8"/>
-        <v>17.330434782608698</v>
+        <f t="shared" ref="L10:L11" si="11">J10/K10</f>
+        <v>9.0282410787924015</v>
       </c>
       <c r="M10">
-        <f t="shared" si="9"/>
-        <v>15.718250297343717</v>
+        <f t="shared" ref="M10:M11" si="12">(ABS(L10-G10)/G10)*100</f>
+        <v>10.587548202537779</v>
       </c>
       <c r="N10">
-        <f t="shared" si="10"/>
-        <v>84.22399999999999</v>
+        <f t="shared" ref="N10:N11" si="13">(F10/C10)*100</f>
+        <v>87.267676767676761</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B11">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
       <c r="C11">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>18.600000000000001</v>
       </c>
       <c r="D11">
-        <v>20.45</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="E11">
-        <v>0.22</v>
+        <v>0.73</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
-        <v>4.4989999999999997</v>
+        <f t="shared" si="10"/>
+        <v>14.475899999999998</v>
       </c>
       <c r="G11">
+        <f t="shared" ref="G11" si="14">D11/E11</f>
+        <v>27.164383561643834</v>
+      </c>
+      <c r="H11">
+        <v>23.000847</v>
+      </c>
+      <c r="I11">
+        <v>1.2477320000000001</v>
+      </c>
+      <c r="J11">
+        <v>20.006903000000001</v>
+      </c>
+      <c r="K11">
+        <v>1.0853189999999999</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="11"/>
-        <v>92.954545454545453</v>
-      </c>
-      <c r="H11">
-        <v>23.12</v>
-      </c>
-      <c r="I11">
-        <v>0.51</v>
-      </c>
-      <c r="J11">
-        <v>20.58</v>
-      </c>
-      <c r="K11">
-        <v>0.46</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="8"/>
-        <v>44.739130434782602</v>
+        <v>18.43412213367683</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
-        <v>51.869884128840226</v>
+        <f t="shared" si="12"/>
+        <v>32.138632589086811</v>
       </c>
       <c r="N11">
-        <f t="shared" si="10"/>
-        <v>49.98888888888888</v>
+        <f t="shared" si="13"/>
+        <v>77.827419354838696</v>
       </c>
     </row>
   </sheetData>
